--- a/Assets/Datas/Excel/ExcleChoiceData.xlsx
+++ b/Assets/Datas/Excel/ExcleChoiceData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94DFB7B7-EA7E-4442-B995-C23E6E8E2A27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFF5A49-BABD-41BB-ABCB-9C6B9E6FBFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{078D71B2-520F-4C84-9684-74FF0CB1BA00}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>ChoicesCount</t>
     <phoneticPr fontId="1"/>
@@ -43,6 +43,22 @@
   </si>
   <si>
     <t>NextTalkData</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Test3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NextData.Test2.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NextData.Test3.</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -89,9 +105,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -407,10 +426,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F1DA94-6D2D-450F-A9EC-D12750D1B769}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -431,6 +450,28 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Datas/Excel/ExcleChoiceData.xlsx
+++ b/Assets/Datas/Excel/ExcleChoiceData.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityGame\NovelGame\Assets\Datas\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCFF5A49-BABD-41BB-ABCB-9C6B9E6FBFD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C14B891-88FA-48DF-AF32-BCD913314209}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{078D71B2-520F-4C84-9684-74FF0CB1BA00}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{078D71B2-520F-4C84-9684-74FF0CB1BA00}"/>
   </bookViews>
   <sheets>
     <sheet name="TestChoices" sheetId="1" r:id="rId1"/>
+    <sheet name="TestChoices2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="10">
   <si>
     <t>ChoicesCount</t>
     <phoneticPr fontId="1"/>
@@ -59,6 +60,18 @@
   </si>
   <si>
     <t>NextData.Test3.</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NextData.Test2.aaaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NextData.Test3.aaaaa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NextData.Test2.bbbbbb</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -428,8 +441,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5F1DA94-6D2D-450F-A9EC-D12750D1B769}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -477,4 +490,70 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86D94196-3F0D-4225-81AA-AEC532B82B4C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="17.8984375" customWidth="1"/>
+    <col min="2" max="2" width="36.796875" customWidth="1"/>
+    <col min="3" max="3" width="19.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A2">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A3">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.45">
+      <c r="A4">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>